--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1862777.452344634</v>
+        <v>1858063.54139027</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8974882.342324482</v>
+        <v>8972522.424762808</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>147.3546306547644</v>
       </c>
       <c r="W2" t="n">
-        <v>73.78779426042439</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>78.69236129864031</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>94.86314782410423</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>33.46568883433531</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>23.72067731927698</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>203.1556231539131</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>56.06545127071892</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>22.78476950182937</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>182.293782253839</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>148.102772842946</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>266.9149187480178</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>327.1389169604541</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>7.775966595601421</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.417892858628</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1312,7 +1312,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>100.2698474393481</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>21.19515399322631</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>60.7375419642111</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993869</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681693</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -1585,16 +1585,16 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>105.3191615169585</v>
+        <v>171.0432295210547</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>38.94177316851477</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>120.0961968842572</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993867</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717784</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>95.49320096681691</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338896</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>25.59792361896318</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>54.80295798669756</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1828,7 +1828,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418605</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
         <v>159.2039277954309</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2843,7 +2843,7 @@
         <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418601</v>
       </c>
       <c r="U29" t="n">
         <v>159.2039277954309</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.1738259657497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564982</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167815</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196055</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380028</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667939</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644666</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883879</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541084</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038685</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.008003206566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006899</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.271475716895</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="C2" t="n">
-        <v>872.0959742198254</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198254</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634776</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222168</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M2" t="n">
-        <v>940.7368004323097</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="N2" t="n">
-        <v>1468.548084069772</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023271</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023271</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023271</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023271</v>
+        <v>1242.55947577007</v>
       </c>
       <c r="W2" t="n">
-        <v>2062.256930507691</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.256930507691</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="Y2" t="n">
-        <v>1665.766221428292</v>
+        <v>871.5604407383576</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021442</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622364</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D3" t="n">
-        <v>505.1591874622364</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>959.915873575022</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1552.274689874028</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>2065.877368483716</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431056</v>
+        <v>791.481975908281</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>697.8703406324689</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="C4" t="n">
-        <v>697.8703406324689</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="D4" t="n">
-        <v>542.2372275349836</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="E4" t="n">
-        <v>386.6784153941861</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="F4" t="n">
-        <v>229.3524806071591</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G4" t="n">
-        <v>229.3524806071591</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865304</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865304</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>920.9824018158256</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>920.9824018158256</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>920.9824018158256</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>920.9824018158256</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>920.9824018158256</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.8703406324689</v>
+        <v>719.8382081145343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.78675685321</v>
+        <v>653.366571094218</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.78675685321</v>
+        <v>653.366571094218</v>
       </c>
       <c r="D5" t="n">
-        <v>1202.78675685321</v>
+        <v>653.366571094218</v>
       </c>
       <c r="E5" t="n">
-        <v>800.2032319697548</v>
+        <v>653.366571094218</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>236.4721326241958</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354884</v>
+        <v>1450.277176783644</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1450.277176783644</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964322</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964322</v>
+        <v>1439.30988524056</v>
       </c>
       <c r="W5" t="n">
-        <v>1599.277465932609</v>
+        <v>1439.30988524056</v>
       </c>
       <c r="X5" t="n">
-        <v>1599.277465932609</v>
+        <v>1049.857280173617</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.78675685321</v>
+        <v>653.366571094218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M6" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="N6" t="n">
-        <v>1385.059676365388</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>943.2783103492424</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512.0135194200648</v>
+        <v>673.3392402594891</v>
       </c>
       <c r="C7" t="n">
-        <v>512.0135194200648</v>
+        <v>673.3392402594891</v>
       </c>
       <c r="D7" t="n">
-        <v>356.3804063225796</v>
+        <v>673.3392402594891</v>
       </c>
       <c r="E7" t="n">
-        <v>200.821594181782</v>
+        <v>517.7804281186916</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>795.3439214888872</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>795.3439214888872</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>512.0135194200648</v>
+        <v>673.3392402594891</v>
       </c>
       <c r="X7" t="n">
-        <v>512.0135194200648</v>
+        <v>673.3392402594891</v>
       </c>
       <c r="Y7" t="n">
-        <v>512.0135194200648</v>
+        <v>673.3392402594891</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1004.842378447763</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506939</v>
+        <v>1934.480089865633</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506939</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506939</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,16 +4805,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2357.793993364452</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2191.280438305502</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2191.280438305502</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2191.280438305502</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2191.280438305502</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2191.280438305502</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1801.827833238559</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.33712415916</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>952.5501211703722</v>
+        <v>1545.785408515688</v>
       </c>
       <c r="N9" t="n">
-        <v>1538.048126176974</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O9" t="n">
-        <v>2054.568408767956</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="D10" t="n">
-        <v>817.0247473313507</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5005,7 +5005,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4773184619364</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816803</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D11" t="n">
         <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
         <v>128.659969465457</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2989.829858835217</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>2989.829858835217</v>
       </c>
       <c r="V11" t="n">
-        <v>2740.928571142733</v>
+        <v>2989.829858835217</v>
       </c>
       <c r="W11" t="n">
-        <v>2740.928571142733</v>
+        <v>2690.627098949698</v>
       </c>
       <c r="X11" t="n">
-        <v>2423.272241221984</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5124,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>487.6503970551456</v>
+        <v>487.5760960984579</v>
       </c>
       <c r="C13" t="n">
-        <v>389.2415542673288</v>
+        <v>389.167253310641</v>
       </c>
       <c r="D13" t="n">
-        <v>305.4047163160374</v>
+        <v>389.167253310641</v>
       </c>
       <c r="E13" t="n">
         <v>305.4047163160374</v>
@@ -5203,7 +5203,7 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118223</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.167348517031</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>1012.78435708576</v>
+        <v>763.2718867143883</v>
       </c>
       <c r="W13" t="n">
-        <v>801.2502301631314</v>
+        <v>763.2718867143883</v>
       </c>
       <c r="X13" t="n">
-        <v>638.9661830923084</v>
+        <v>600.9878396435653</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.6503970551456</v>
+        <v>600.9878396435653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1758.912988943184</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1437.533762592308</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>403.4856080699184</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2087.611459508387</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.5760960984578</v>
+        <v>450.3613515938996</v>
       </c>
       <c r="C16" t="n">
-        <v>389.1672533106409</v>
+        <v>351.9525088060827</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106409</v>
+        <v>268.1156708547913</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160374</v>
+        <v>268.1156708547913</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>268.1156708547913</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208437</v>
+        <v>171.6578921004308</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>87.97561620811874</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.712914377463</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581897</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.410653902774</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118227</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138165</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1258.251595703136</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="U16" t="n">
-        <v>1044.609079091231</v>
+        <v>1283.090125202603</v>
       </c>
       <c r="V16" t="n">
-        <v>850.4260090582491</v>
+        <v>1088.907055169621</v>
       </c>
       <c r="W16" t="n">
-        <v>638.8918821356206</v>
+        <v>877.3729282469925</v>
       </c>
       <c r="X16" t="n">
-        <v>638.8918821356206</v>
+        <v>715.0888811761697</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.5760960984578</v>
+        <v>563.773095139007</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,19 +5674,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,19 +5914,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6005,7 +6005,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6014,10 +6014,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6063,7 +6063,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
@@ -6072,7 +6072,7 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6127,7 +6127,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
         <v>149.5651460634914</v>
@@ -6136,16 +6136,16 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462919</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
@@ -6163,10 +6163,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838011</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.202162476281</v>
@@ -6190,7 +6190,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218605</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390266</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142182</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,43 +6233,43 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4798411672776</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>670.0459270655908</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.817576692272</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1297.817576692272</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1814.337859283253</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286446</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026477</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1100.28679488479</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2357.000848274085</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835485</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640393</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>621.3530052915012</v>
+        <v>682.8393851136181</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.9463897371</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781681</v>
+        <v>1876.872843314991</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419143</v>
+        <v>2404.684126952453</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038541</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076164</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390749</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1836.663254976315</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2353.183537567296</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929706</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404853</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245254</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652532</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.7304500837418</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777737</v>
+        <v>342.9206752648155</v>
       </c>
       <c r="L34" t="n">
-        <v>526.0564146786437</v>
+        <v>618.7004357135983</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729568</v>
+        <v>804.9920140518623</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831236</v>
+        <v>988.1816480830714</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872944</v>
+        <v>1256.686073727024</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376593</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250167</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273664</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400693</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045778</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027465</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,7 +6968,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7205,13 +7205,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>207.7175872278004</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>691.2836731261136</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1319.055322752795</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,19 +7330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296503</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7442,19 +7442,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,7 +7488,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
         <v>96.81867335321709</v>
@@ -7567,16 +7567,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
         <v>812.1990332879427</v>
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,10 +7682,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960415</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O2" t="n">
-        <v>324.5151842882451</v>
+        <v>502.1429238393162</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>144.3219646728112</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>96.46212172154242</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>288.1928110140955</v>
+        <v>565.7063741961988</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8304,13 +8304,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>572.6307885465551</v>
       </c>
       <c r="O6" t="n">
-        <v>243.9368852536098</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,19 +8453,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>682.7240674336267</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>680.3186616794904</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>401.305684323582</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8772,16 +8772,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9170,7 +9170,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>543.2755872400996</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9720,10 +9720,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>433.5454285415793</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>236.6660863673584</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>117.494503443537</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>128.9921300282192</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.7099476296618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465753</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>86.92207781569354</v>
+        <v>21.19800981159736</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>271.5666319322522</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362794</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>147.5112319245276</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465751</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442478</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.08724509559771</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901681</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4805909320187</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>782840.7364424751</v>
+        <v>781637.6412149546</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>782840.7364424751</v>
+        <v>781637.6412149546</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>704989.1680086694</v>
+        <v>704989.1680086693</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>704989.1680086692</v>
+        <v>704989.168008669</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>790979.1021513897</v>
+        <v>790979.1021513896</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522963.3164707346</v>
+        <v>522963.3164707345</v>
       </c>
       <c r="C2" t="n">
-        <v>522963.3164707346</v>
+        <v>522963.3164707345</v>
       </c>
       <c r="D2" t="n">
+        <v>522963.3164707345</v>
+      </c>
+      <c r="E2" t="n">
+        <v>462141.1679307611</v>
+      </c>
+      <c r="F2" t="n">
+        <v>462141.1679307612</v>
+      </c>
+      <c r="G2" t="n">
+        <v>522963.3164707351</v>
+      </c>
+      <c r="H2" t="n">
+        <v>522963.316470735</v>
+      </c>
+      <c r="I2" t="n">
+        <v>522963.316470735</v>
+      </c>
+      <c r="J2" t="n">
+        <v>522963.3164707349</v>
+      </c>
+      <c r="K2" t="n">
         <v>522963.3164707347</v>
       </c>
-      <c r="E2" t="n">
-        <v>462141.1679307612</v>
-      </c>
-      <c r="F2" t="n">
-        <v>462141.167930761</v>
-      </c>
-      <c r="G2" t="n">
-        <v>522963.316470735</v>
-      </c>
-      <c r="H2" t="n">
-        <v>522963.3164707349</v>
-      </c>
-      <c r="I2" t="n">
-        <v>522963.3164707341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>522963.3164707346</v>
-      </c>
-      <c r="K2" t="n">
-        <v>522963.3164707348</v>
-      </c>
       <c r="L2" t="n">
-        <v>522963.3164707343</v>
+        <v>522963.3164707347</v>
       </c>
       <c r="M2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.3164707351</v>
       </c>
       <c r="N2" t="n">
         <v>522963.316470735</v>
       </c>
       <c r="O2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.316470735</v>
       </c>
       <c r="P2" t="n">
-        <v>522963.3164707351</v>
+        <v>522963.316470735</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668192</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539686</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081123</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277126</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26436,16 +26436,16 @@
         <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.0764483298</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387917</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,16 +26488,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391949</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63389.15755484189</v>
+        <v>67740.60336913673</v>
       </c>
       <c r="C6" t="n">
-        <v>245594.1058466979</v>
+        <v>241599.2604031917</v>
       </c>
       <c r="D6" t="n">
-        <v>238425.7848250266</v>
+        <v>230689.4956016346</v>
       </c>
       <c r="E6" t="n">
-        <v>171130.9192645115</v>
+        <v>170921.1877178219</v>
       </c>
       <c r="F6" t="n">
-        <v>283253.4807385558</v>
+        <v>283043.7491918664</v>
       </c>
       <c r="G6" t="n">
         <v>243907.6376345867</v>
@@ -26540,19 +26540,19 @@
         <v>291332.9631712685</v>
       </c>
       <c r="I6" t="n">
-        <v>291332.9631712676</v>
+        <v>291332.9631712686</v>
       </c>
       <c r="J6" t="n">
-        <v>78291.04557398253</v>
+        <v>84807.33072855623</v>
       </c>
       <c r="K6" t="n">
         <v>285093.1947684854</v>
       </c>
       <c r="L6" t="n">
-        <v>229910.6058338638</v>
+        <v>225861.7686233919</v>
       </c>
       <c r="M6" t="n">
-        <v>249132.1337116456</v>
+        <v>248080.4387004574</v>
       </c>
       <c r="N6" t="n">
         <v>291332.9631712686</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>34.7096175534641</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924607</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287432</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.70961755346407</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660682</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.0235120155135</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>191.3311105487524</v>
       </c>
       <c r="W2" t="n">
-        <v>293.501250420971</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>56.38966468158084</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>82.65792693114361</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>149.890249670053</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>209.6411839941712</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27622,13 +27622,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>209.5698709314089</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>352.9656766861579</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1777423863152</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>5.120224619649463</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>134.4816309975721</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>13.58217930011631</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>54.44780053504485</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.83701798173186</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>23.65888910788243</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>120.611093132175</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="17">
@@ -28746,19 +28746,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28986,22 +28986,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634528921</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634529405</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.65052755599578</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29536,10 +29536,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833293</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>43.49509683159658</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844045353</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.8683420224694</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30174,22 +30174,22 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>128.2979821082769</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>35.71049010668769</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30639,19 +30639,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.636002634529035</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30876,19 +30876,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634529603</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O2" t="n">
-        <v>174.9513468641487</v>
+        <v>352.5790864152198</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>58.94985181864453</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>9.378756902227758</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>138.4677594163683</v>
+        <v>415.9813225984715</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35024,13 +35024,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>487.2586756923884</v>
       </c>
       <c r="O6" t="n">
-        <v>151.2493263647209</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,19 +35173,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>532.9990158358994</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>314.2223195042674</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257291</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
         <v>236.863807216752</v>
@@ -35580,13 +35580,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257292</v>
       </c>
       <c r="K16" t="n">
         <v>153.739970081542</v>
@@ -35820,10 +35820,10 @@
         <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>453.2152403831814</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36282,22 +36282,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716078</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724876</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.3632145670549</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>346.4620637222647</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272223</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670549</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144219</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>611.0832447409211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>595.0111574826881</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055105</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932455</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>271.2165915595483</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184294</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>147.0691510340251</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934977</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>35.0500461102036</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.421497456549</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565496</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
